--- a/Design/数据表/文本表.xlsx
+++ b/Design/数据表/文本表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\likehole\jk\Pxc-Game-Frame\CC37TmplProject\Design\数据表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dhere\GameProjects_WaitCopy\SpaceElevatorDemo\Design\数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296442A3-10D1-47CA-A953-433304EB42B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7650"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文本" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -100,13 +101,29 @@
   <si>
     <t>癸</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>基座</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>低轨道中转站</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资中转区</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>方舟国际空间站</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +281,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -693,10 +717,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -756,7 +781,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -831,6 +856,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -866,6 +908,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1041,14 +1100,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1157,6 +1219,38 @@
       </c>
       <c r="B14" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>103</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1232,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Design/数据表/文本表.xlsx
+++ b/Design/数据表/文本表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dhere\GameProjects_WaitCopy\SpaceElevatorDemo\Design\数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296442A3-10D1-47CA-A953-433304EB42B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821C3F5-05B4-40A8-A44E-6FAC54A92C12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,14 @@
   <si>
     <t>方舟国际空间站</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1101,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,6 +1259,22 @@
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
